--- a/data/Cofactors.xlsx
+++ b/data/Cofactors.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatth\Dropbox\Age_over_90_years\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D07BF-97D5-4FBD-9CF3-81B2D91EB7C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C308D12-577F-456D-80C6-F3FCACED9F52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{1A630ED7-E315-4AD9-9E28-8A2C623BE913}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="218">
   <si>
     <t>Year</t>
   </si>
@@ -667,6 +667,18 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Italian</t>
   </si>
 </sst>
 </file>
@@ -764,7 +776,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -785,6 +797,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1102,19 +1116,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE526702-564C-44E7-B86F-462BDE031E9F}">
-  <dimension ref="A1:L357"/>
+  <dimension ref="A1:M357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B122" workbookViewId="0">
+      <selection activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,8 +1166,11 @@
       <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M1" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1888</v>
       </c>
@@ -1189,8 +1207,11 @@
       <c r="L2" s="7">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M2" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1888</v>
       </c>
@@ -1227,8 +1248,11 @@
       <c r="L3" s="7">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M3" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1888</v>
       </c>
@@ -1265,8 +1289,11 @@
       <c r="L4" s="7">
         <v>49.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M4" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1888</v>
       </c>
@@ -1303,8 +1330,11 @@
       <c r="L5" s="7">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M5" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1888</v>
       </c>
@@ -1341,8 +1371,11 @@
       <c r="L6" s="7">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M6" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1888</v>
       </c>
@@ -1379,8 +1412,11 @@
       <c r="L7" s="7">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M7" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>1888</v>
       </c>
@@ -1417,8 +1453,11 @@
       <c r="L8" s="7">
         <v>35.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M8" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>1888</v>
       </c>
@@ -1455,8 +1494,11 @@
       <c r="L9" s="7">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M9" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>1888</v>
       </c>
@@ -1493,8 +1535,11 @@
       <c r="L10" s="7">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M10" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>1888</v>
       </c>
@@ -1531,8 +1576,11 @@
       <c r="L11" s="7">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M11" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>1888</v>
       </c>
@@ -1569,8 +1617,11 @@
       <c r="L12" s="7">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M12" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1888</v>
       </c>
@@ -1607,8 +1658,11 @@
       <c r="L13" s="7">
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M13" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1888</v>
       </c>
@@ -1643,8 +1697,11 @@
       <c r="L14" s="7">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M14" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>1888</v>
       </c>
@@ -1679,8 +1736,11 @@
       <c r="L15" s="7">
         <v>32.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M15" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1888</v>
       </c>
@@ -1717,8 +1777,11 @@
       <c r="L16" s="7">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M16" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>1888</v>
       </c>
@@ -1755,8 +1818,11 @@
       <c r="L17" s="7">
         <v>52.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M17" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>1888</v>
       </c>
@@ -1791,8 +1857,11 @@
       <c r="L18" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M18" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>1888</v>
       </c>
@@ -1829,8 +1898,11 @@
       <c r="L19" s="7">
         <v>47.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M19" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>1888</v>
       </c>
@@ -1867,8 +1939,11 @@
       <c r="L20" s="7">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M20" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>1888</v>
       </c>
@@ -1905,8 +1980,11 @@
       <c r="L21" s="7">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M21" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>1888</v>
       </c>
@@ -1943,8 +2021,11 @@
       <c r="L22" s="7">
         <v>232.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M22" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>1888</v>
       </c>
@@ -1981,8 +2062,11 @@
       <c r="L23" s="7">
         <v>37.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M23" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>1888</v>
       </c>
@@ -2019,8 +2103,11 @@
       <c r="L24" s="7">
         <v>47.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M24" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>1888</v>
       </c>
@@ -2057,8 +2144,11 @@
       <c r="L25" s="7">
         <v>250.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M25" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>1888</v>
       </c>
@@ -2095,8 +2185,11 @@
       <c r="L26" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M26" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>1888</v>
       </c>
@@ -2133,8 +2226,11 @@
       <c r="L27" s="7">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M27" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>1888</v>
       </c>
@@ -2171,8 +2267,11 @@
       <c r="L28" s="7">
         <v>63.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M28" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>1888</v>
       </c>
@@ -2209,8 +2308,11 @@
       <c r="L29" s="7">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M29" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>1888</v>
       </c>
@@ -2247,8 +2349,11 @@
       <c r="L30" s="7">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M30" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>1888</v>
       </c>
@@ -2285,8 +2390,11 @@
       <c r="L31" s="7">
         <v>57.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M31" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>1888</v>
       </c>
@@ -2323,8 +2431,11 @@
       <c r="L32" s="7">
         <v>43.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M32" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>1888</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="L33" s="7">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M33" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>1888</v>
       </c>
@@ -2399,8 +2513,11 @@
       <c r="L34" s="7">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M34" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>1888</v>
       </c>
@@ -2435,8 +2552,11 @@
       <c r="L35" s="7">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M35" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>1888</v>
       </c>
@@ -2473,8 +2593,11 @@
       <c r="L36" s="7">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M36" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>1888</v>
       </c>
@@ -2511,8 +2634,11 @@
       <c r="L37" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M37" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>1888</v>
       </c>
@@ -2549,8 +2675,11 @@
       <c r="L38" s="7">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M38" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>1888</v>
       </c>
@@ -2587,8 +2716,11 @@
       <c r="L39" s="7">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M39" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>1888</v>
       </c>
@@ -2625,8 +2757,11 @@
       <c r="L40" s="7">
         <v>46.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M40" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>1888</v>
       </c>
@@ -2663,8 +2798,11 @@
       <c r="L41" s="7">
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M41" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>1888</v>
       </c>
@@ -2701,8 +2839,11 @@
       <c r="L42" s="7">
         <v>77.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M42" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>1888</v>
       </c>
@@ -2739,8 +2880,11 @@
       <c r="L43" s="7">
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M43" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>1888</v>
       </c>
@@ -2777,8 +2921,11 @@
       <c r="L44" s="7">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M44" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>1888</v>
       </c>
@@ -2815,8 +2962,11 @@
       <c r="L45" s="7">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M45" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>1888</v>
       </c>
@@ -2853,8 +3003,11 @@
       <c r="L46" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M46" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>1888</v>
       </c>
@@ -2891,8 +3044,11 @@
       <c r="L47" s="7">
         <v>30.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M47" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>1888</v>
       </c>
@@ -2929,8 +3085,11 @@
       <c r="L48" s="7">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M48" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>1888</v>
       </c>
@@ -2967,8 +3126,11 @@
       <c r="L49" s="7">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M49" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>1888</v>
       </c>
@@ -3005,8 +3167,11 @@
       <c r="L50" s="7">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M50" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>1888</v>
       </c>
@@ -3043,8 +3208,11 @@
       <c r="L51" s="7">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M51" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>1888</v>
       </c>
@@ -3081,8 +3249,11 @@
       <c r="L52" s="7">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M52" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>1888</v>
       </c>
@@ -3119,8 +3290,11 @@
       <c r="L53" s="7">
         <v>46.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M53" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>1888</v>
       </c>
@@ -3157,8 +3331,11 @@
       <c r="L54" s="7">
         <v>53.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M54" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>1888</v>
       </c>
@@ -3195,8 +3372,11 @@
       <c r="L55" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M55" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>1888</v>
       </c>
@@ -3233,8 +3413,11 @@
       <c r="L56" s="7">
         <v>343.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M56" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>1888</v>
       </c>
@@ -3271,8 +3454,11 @@
       <c r="L57" s="7">
         <v>90.2</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M57" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>1888</v>
       </c>
@@ -3309,8 +3495,11 @@
       <c r="L58" s="7">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M58" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>1888</v>
       </c>
@@ -3347,8 +3536,11 @@
       <c r="L59" s="7">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M59" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>1888</v>
       </c>
@@ -3385,8 +3577,11 @@
       <c r="L60" s="7">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M60" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>1888</v>
       </c>
@@ -3423,8 +3618,11 @@
       <c r="L61" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M61" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>1888</v>
       </c>
@@ -3461,8 +3659,11 @@
       <c r="L62" s="7">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M62" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>1888</v>
       </c>
@@ -3499,8 +3700,11 @@
       <c r="L63" s="7">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M63" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>1888</v>
       </c>
@@ -3537,8 +3741,11 @@
       <c r="L64" s="7">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M64" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>1888</v>
       </c>
@@ -3575,8 +3782,11 @@
       <c r="L65" s="7">
         <v>53</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M65" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>1888</v>
       </c>
@@ -3613,8 +3823,11 @@
       <c r="L66" s="7">
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M66" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>1888</v>
       </c>
@@ -3651,8 +3864,11 @@
       <c r="L67" s="7">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M67" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>1888</v>
       </c>
@@ -3689,8 +3905,11 @@
       <c r="L68" s="7">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M68" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>1888</v>
       </c>
@@ -3727,8 +3946,11 @@
       <c r="L69" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M69" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>1888</v>
       </c>
@@ -3765,8 +3987,11 @@
       <c r="L70" s="7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M70" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>1888</v>
       </c>
@@ -3803,8 +4028,11 @@
       <c r="L71" s="7">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M71" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>1888</v>
       </c>
@@ -3841,8 +4069,11 @@
       <c r="L72" s="7">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M72" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>1888</v>
       </c>
@@ -3879,8 +4110,11 @@
       <c r="L73" s="7">
         <v>85.4</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M73" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>1888</v>
       </c>
@@ -3917,8 +4151,11 @@
       <c r="L74" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M74" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>1888</v>
       </c>
@@ -3955,8 +4192,11 @@
       <c r="L75" s="7">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M75" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>1888</v>
       </c>
@@ -3993,8 +4233,11 @@
       <c r="L76" s="7">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M76" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>1888</v>
       </c>
@@ -4031,8 +4274,11 @@
       <c r="L77" s="7">
         <v>94.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M77" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>1888</v>
       </c>
@@ -4069,8 +4315,11 @@
       <c r="L78" s="7">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M78" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>1888</v>
       </c>
@@ -4107,8 +4356,11 @@
       <c r="L79" s="7">
         <v>56.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M79" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>1888</v>
       </c>
@@ -4145,8 +4397,11 @@
       <c r="L80" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M80" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>1888</v>
       </c>
@@ -4183,8 +4438,11 @@
       <c r="L81" s="7">
         <v>61.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M81" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>1888</v>
       </c>
@@ -4221,8 +4479,11 @@
       <c r="L82" s="7">
         <v>70.400000000000006</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M82" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>1888</v>
       </c>
@@ -4259,8 +4520,11 @@
       <c r="L83" s="7">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M83" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>1888</v>
       </c>
@@ -4297,8 +4561,11 @@
       <c r="L84" s="7">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M84" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>1888</v>
       </c>
@@ -4335,8 +4602,11 @@
       <c r="L85" s="7">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M85" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>1888</v>
       </c>
@@ -4373,8 +4643,11 @@
       <c r="L86" s="7">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M86" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>1888</v>
       </c>
@@ -4411,8 +4684,11 @@
       <c r="L87" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M87" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>1888</v>
       </c>
@@ -4449,8 +4725,11 @@
       <c r="L88" s="7">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M88" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>1888</v>
       </c>
@@ -4487,8 +4766,11 @@
       <c r="L89" s="7">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M89" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>1888</v>
       </c>
@@ -4525,8 +4807,11 @@
       <c r="L90" s="7">
         <v>46</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M90" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>1888</v>
       </c>
@@ -4563,8 +4848,11 @@
       <c r="L91" s="7">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M91" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>1888</v>
       </c>
@@ -4601,8 +4889,11 @@
       <c r="L92" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M92" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>1888</v>
       </c>
@@ -4639,8 +4930,11 @@
       <c r="L93" s="7">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M93" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>1888</v>
       </c>
@@ -4677,8 +4971,11 @@
       <c r="L94" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M94" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>1888</v>
       </c>
@@ -4715,8 +5012,11 @@
       <c r="L95" s="7">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M95" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>1888</v>
       </c>
@@ -4753,8 +5053,11 @@
       <c r="L96" s="7">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M96" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>1888</v>
       </c>
@@ -4791,8 +5094,11 @@
       <c r="L97" s="7">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M97" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>1888</v>
       </c>
@@ -4829,8 +5135,11 @@
       <c r="L98" s="7">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M98" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>1888</v>
       </c>
@@ -4867,8 +5176,11 @@
       <c r="L99" s="7">
         <v>45.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M99" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>1888</v>
       </c>
@@ -4905,8 +5217,11 @@
       <c r="L100" s="7">
         <v>33.4</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M100" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>1888</v>
       </c>
@@ -4943,8 +5258,11 @@
       <c r="L101" s="7">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M101" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>1888</v>
       </c>
@@ -4981,8 +5299,11 @@
       <c r="L102" s="7">
         <v>38</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M102" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>1888</v>
       </c>
@@ -5019,8 +5340,11 @@
       <c r="L103" s="7">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M103" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>1888</v>
       </c>
@@ -5057,8 +5381,11 @@
       <c r="L104" s="7">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M104" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>1888</v>
       </c>
@@ -5095,8 +5422,11 @@
       <c r="L105" s="7">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M105" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>1888</v>
       </c>
@@ -5133,8 +5463,11 @@
       <c r="L106" s="7">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M106" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>1888</v>
       </c>
@@ -5171,8 +5504,11 @@
       <c r="L107" s="7">
         <v>30.6</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M107" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>1888</v>
       </c>
@@ -5209,8 +5545,11 @@
       <c r="L108" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M108" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>1888</v>
       </c>
@@ -5247,8 +5586,11 @@
       <c r="L109" s="7">
         <v>53</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M109" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>1888</v>
       </c>
@@ -5285,8 +5627,11 @@
       <c r="L110" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M110" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>1888</v>
       </c>
@@ -5323,8 +5668,11 @@
       <c r="L111" s="7">
         <v>30.8</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M111" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>1888</v>
       </c>
@@ -5361,8 +5709,11 @@
       <c r="L112" s="7">
         <v>51.2</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M112" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>1888</v>
       </c>
@@ -5399,8 +5750,11 @@
       <c r="L113" s="7">
         <v>40.4</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M113" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>1888</v>
       </c>
@@ -5437,8 +5791,11 @@
       <c r="L114" s="7">
         <v>103.2</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M114" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>1888</v>
       </c>
@@ -5475,8 +5832,11 @@
       <c r="L115" s="7">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M115" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>1888</v>
       </c>
@@ -5513,8 +5873,11 @@
       <c r="L116" s="7">
         <v>39</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M116" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>1888</v>
       </c>
@@ -5551,8 +5914,11 @@
       <c r="L117" s="7">
         <v>39</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M117" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>1888</v>
       </c>
@@ -5589,8 +5955,11 @@
       <c r="L118" s="7">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M118" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>1888</v>
       </c>
@@ -5627,8 +5996,11 @@
       <c r="L119" s="7">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M119" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>1888</v>
       </c>
@@ -5665,8 +6037,11 @@
       <c r="L120" s="7">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M120" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>1888</v>
       </c>
@@ -5703,8 +6078,11 @@
       <c r="L121" s="7">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M121" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>1888</v>
       </c>
@@ -5741,8 +6119,11 @@
       <c r="L122" s="7">
         <v>35.200000000000003</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M122" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>1888</v>
       </c>
@@ -5779,8 +6160,11 @@
       <c r="L123" s="7">
         <v>73.400000000000006</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M123" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <v>1888</v>
       </c>
@@ -5817,8 +6201,11 @@
       <c r="L124" s="7">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M124" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>1888</v>
       </c>
@@ -5855,8 +6242,11 @@
       <c r="L125" s="7">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M125" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <v>1888</v>
       </c>
@@ -5893,8 +6283,11 @@
       <c r="L126" s="7">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M126" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>1888</v>
       </c>
@@ -5931,8 +6324,11 @@
       <c r="L127" s="7">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M127" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>1888</v>
       </c>
@@ -5969,8 +6365,11 @@
       <c r="L128" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M128" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>1888</v>
       </c>
@@ -6007,8 +6406,11 @@
       <c r="L129" s="7">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M129" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>1888</v>
       </c>
@@ -6045,8 +6447,11 @@
       <c r="L130" s="7">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M130" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>1888</v>
       </c>
@@ -6083,8 +6488,11 @@
       <c r="L131" s="7">
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M131" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>1888</v>
       </c>
@@ -6121,8 +6529,11 @@
       <c r="L132" s="7">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M132" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>1888</v>
       </c>
@@ -6159,8 +6570,11 @@
       <c r="L133" s="7">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M133" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>1888</v>
       </c>
@@ -6197,8 +6611,11 @@
       <c r="L134" s="7">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M134" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>1888</v>
       </c>
@@ -6235,8 +6652,11 @@
       <c r="L135" s="7">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M135" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>1888</v>
       </c>
@@ -6273,8 +6693,11 @@
       <c r="L136" s="7">
         <v>30.6</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M136" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>1888</v>
       </c>
@@ -6311,8 +6734,11 @@
       <c r="L137" s="7">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M137" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>1888</v>
       </c>
@@ -6349,8 +6775,11 @@
       <c r="L138" s="7">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M138" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>1888</v>
       </c>
@@ -6387,8 +6816,11 @@
       <c r="L139" s="7">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M139" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>1888</v>
       </c>
@@ -6425,8 +6857,11 @@
       <c r="L140" s="7">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M140" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>1888</v>
       </c>
@@ -6463,8 +6898,11 @@
       <c r="L141" s="7">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M141" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <v>1888</v>
       </c>
@@ -6501,8 +6939,11 @@
       <c r="L142" s="7">
         <v>121.4</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M142" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <v>1888</v>
       </c>
@@ -6539,8 +6980,11 @@
       <c r="L143" s="7">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M143" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>1888</v>
       </c>
@@ -6577,8 +7021,11 @@
       <c r="L144" s="7">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M144" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>1888</v>
       </c>
@@ -6615,8 +7062,11 @@
       <c r="L145" s="7">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M145" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>1888</v>
       </c>
@@ -6653,8 +7103,11 @@
       <c r="L146" s="7">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M146" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>1888</v>
       </c>
@@ -6691,8 +7144,11 @@
       <c r="L147" s="7">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M147" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>1888</v>
       </c>
@@ -6729,8 +7185,11 @@
       <c r="L148" s="7">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M148" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <v>1888</v>
       </c>
@@ -6767,8 +7226,11 @@
       <c r="L149" s="7">
         <v>76.2</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M149" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>1888</v>
       </c>
@@ -6805,8 +7267,11 @@
       <c r="L150" s="7">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M150" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <v>1888</v>
       </c>
@@ -6843,8 +7308,11 @@
       <c r="L151" s="7">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M151" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <v>1888</v>
       </c>
@@ -6881,8 +7349,11 @@
       <c r="L152" s="7">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M152" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <v>1888</v>
       </c>
@@ -6919,8 +7390,11 @@
       <c r="L153" s="7">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M153" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <v>1888</v>
       </c>
@@ -6957,8 +7431,11 @@
       <c r="L154" s="7">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M154" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <v>1888</v>
       </c>
@@ -6995,8 +7472,11 @@
       <c r="L155" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M155" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <v>1888</v>
       </c>
@@ -7033,8 +7513,11 @@
       <c r="L156" s="7">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M156" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>1888</v>
       </c>
@@ -7071,8 +7554,11 @@
       <c r="L157" s="7">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M157" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <v>1888</v>
       </c>
@@ -7109,8 +7595,11 @@
       <c r="L158" s="7">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M158" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <v>1888</v>
       </c>
@@ -7147,8 +7636,11 @@
       <c r="L159" s="7">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M159" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <v>1888</v>
       </c>
@@ -7185,8 +7677,11 @@
       <c r="L160" s="7">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M160" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <v>1888</v>
       </c>
@@ -7223,8 +7718,11 @@
       <c r="L161" s="7">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M161" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
         <v>1888</v>
       </c>
@@ -7261,8 +7759,11 @@
       <c r="L162" s="7">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M162" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <v>1888</v>
       </c>
@@ -7299,8 +7800,11 @@
       <c r="L163" s="7">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M163" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <v>1888</v>
       </c>
@@ -7337,8 +7841,11 @@
       <c r="L164" s="7">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M164" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
         <v>1888</v>
       </c>
@@ -7375,8 +7882,11 @@
       <c r="L165" s="7">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M165" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
         <v>1888</v>
       </c>
@@ -7413,8 +7923,11 @@
       <c r="L166" s="7">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M166" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <v>1888</v>
       </c>
@@ -7451,8 +7964,11 @@
       <c r="L167" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M167" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
         <v>1888</v>
       </c>
@@ -7489,8 +8005,11 @@
       <c r="L168" s="7">
         <v>57.2</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M168" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <v>1888</v>
       </c>
@@ -7527,8 +8046,11 @@
       <c r="L169" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M169" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
         <v>1888</v>
       </c>
@@ -7565,8 +8087,11 @@
       <c r="L170" s="7">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M170" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <v>1888</v>
       </c>
@@ -7603,8 +8128,11 @@
       <c r="L171" s="7">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M171" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
         <v>1888</v>
       </c>
@@ -7641,8 +8169,11 @@
       <c r="L172" s="7">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M172" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="7">
         <v>1888</v>
       </c>
@@ -7679,8 +8210,11 @@
       <c r="L173" s="7">
         <v>69</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M173" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
         <v>1888</v>
       </c>
@@ -7717,8 +8251,11 @@
       <c r="L174" s="7">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M174" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
         <v>1888</v>
       </c>
@@ -7755,8 +8292,11 @@
       <c r="L175" s="7">
         <v>36.200000000000003</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M175" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
         <v>1888</v>
       </c>
@@ -7793,8 +8333,11 @@
       <c r="L176" s="7">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M176" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <v>1888</v>
       </c>
@@ -7831,8 +8374,11 @@
       <c r="L177" s="7">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M177" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
         <v>1888</v>
       </c>
@@ -7869,8 +8415,11 @@
       <c r="L178" s="7">
         <v>94</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M178" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <v>1888</v>
       </c>
@@ -7907,8 +8456,11 @@
       <c r="L179" s="7">
         <v>309.60000000000002</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M179" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
         <v>1900</v>
       </c>
@@ -7945,8 +8497,11 @@
       <c r="L180" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M180" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="7">
         <v>1900</v>
       </c>
@@ -7983,8 +8538,11 @@
       <c r="L181" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M181" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="7">
         <v>1900</v>
       </c>
@@ -8021,8 +8579,11 @@
       <c r="L182" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M182" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
         <v>1900</v>
       </c>
@@ -8059,8 +8620,11 @@
       <c r="L183" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M183" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
         <v>1900</v>
       </c>
@@ -8097,8 +8661,11 @@
       <c r="L184" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M184" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
         <v>1900</v>
       </c>
@@ -8135,8 +8702,11 @@
       <c r="L185" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M185" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
         <v>1900</v>
       </c>
@@ -8173,8 +8743,11 @@
       <c r="L186" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M186" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
         <v>1900</v>
       </c>
@@ -8211,8 +8784,11 @@
       <c r="L187" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M187" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
         <v>1900</v>
       </c>
@@ -8249,8 +8825,11 @@
       <c r="L188" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M188" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
         <v>1900</v>
       </c>
@@ -8287,8 +8866,11 @@
       <c r="L189" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M189" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
         <v>1900</v>
       </c>
@@ -8325,8 +8907,11 @@
       <c r="L190" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M190" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
         <v>1900</v>
       </c>
@@ -8363,8 +8948,11 @@
       <c r="L191" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M191" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="7">
         <v>1900</v>
       </c>
@@ -8399,8 +8987,11 @@
       <c r="L192" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M192" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <v>1900</v>
       </c>
@@ -8435,8 +9026,11 @@
       <c r="L193" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M193" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
         <v>1900</v>
       </c>
@@ -8473,8 +9067,11 @@
       <c r="L194" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M194" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <v>1900</v>
       </c>
@@ -8511,8 +9108,11 @@
       <c r="L195" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M195" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <v>1900</v>
       </c>
@@ -8547,8 +9147,11 @@
       <c r="L196" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M196" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <v>1900</v>
       </c>
@@ -8585,8 +9188,11 @@
       <c r="L197" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M197" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
         <v>1900</v>
       </c>
@@ -8623,8 +9229,11 @@
       <c r="L198" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M198" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <v>1900</v>
       </c>
@@ -8661,8 +9270,11 @@
       <c r="L199" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M199" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
         <v>1900</v>
       </c>
@@ -8699,8 +9311,11 @@
       <c r="L200" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M200" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
         <v>1900</v>
       </c>
@@ -8737,8 +9352,11 @@
       <c r="L201" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M201" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <v>1900</v>
       </c>
@@ -8775,8 +9393,11 @@
       <c r="L202" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M202" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="7">
         <v>1900</v>
       </c>
@@ -8813,8 +9434,11 @@
       <c r="L203" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M203" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="7">
         <v>1900</v>
       </c>
@@ -8851,8 +9475,11 @@
       <c r="L204" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M204" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
         <v>1900</v>
       </c>
@@ -8889,8 +9516,11 @@
       <c r="L205" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M205" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="7">
         <v>1900</v>
       </c>
@@ -8927,8 +9557,11 @@
       <c r="L206" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M206" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
         <v>1900</v>
       </c>
@@ -8965,8 +9598,11 @@
       <c r="L207" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M207" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="7">
         <v>1900</v>
       </c>
@@ -9003,8 +9639,11 @@
       <c r="L208" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M208" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <v>1900</v>
       </c>
@@ -9041,8 +9680,11 @@
       <c r="L209" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M209" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="7">
         <v>1900</v>
       </c>
@@ -9079,8 +9721,11 @@
       <c r="L210" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M210" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
         <v>1900</v>
       </c>
@@ -9117,8 +9762,11 @@
       <c r="L211" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M211" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="7">
         <v>1900</v>
       </c>
@@ -9155,8 +9803,11 @@
       <c r="L212" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M212" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
         <v>1900</v>
       </c>
@@ -9191,8 +9842,11 @@
       <c r="L213" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M213" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="7">
         <v>1900</v>
       </c>
@@ -9229,8 +9883,11 @@
       <c r="L214" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M214" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
         <v>1900</v>
       </c>
@@ -9267,8 +9924,11 @@
       <c r="L215" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M215" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" s="7">
         <v>1900</v>
       </c>
@@ -9305,8 +9965,11 @@
       <c r="L216" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M216" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="7">
         <v>1900</v>
       </c>
@@ -9343,8 +10006,11 @@
       <c r="L217" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M217" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
         <v>1900</v>
       </c>
@@ -9381,8 +10047,11 @@
       <c r="L218" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M218" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
         <v>1900</v>
       </c>
@@ -9419,8 +10088,11 @@
       <c r="L219" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M219" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
         <v>1900</v>
       </c>
@@ -9457,8 +10129,11 @@
       <c r="L220" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M220" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
         <v>1900</v>
       </c>
@@ -9495,8 +10170,11 @@
       <c r="L221" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M221" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
         <v>1900</v>
       </c>
@@ -9533,8 +10211,11 @@
       <c r="L222" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M222" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
         <v>1900</v>
       </c>
@@ -9571,8 +10252,11 @@
       <c r="L223" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M223" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
         <v>1900</v>
       </c>
@@ -9609,8 +10293,11 @@
       <c r="L224" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M224" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
         <v>1900</v>
       </c>
@@ -9647,8 +10334,11 @@
       <c r="L225" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M225" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
         <v>1900</v>
       </c>
@@ -9685,8 +10375,11 @@
       <c r="L226" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M226" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
         <v>1900</v>
       </c>
@@ -9723,8 +10416,11 @@
       <c r="L227" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M227" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="7">
         <v>1900</v>
       </c>
@@ -9761,8 +10457,11 @@
       <c r="L228" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M228" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="7">
         <v>1900</v>
       </c>
@@ -9799,8 +10498,11 @@
       <c r="L229" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M229" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" s="7">
         <v>1900</v>
       </c>
@@ -9837,8 +10539,11 @@
       <c r="L230" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M230" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" s="7">
         <v>1900</v>
       </c>
@@ -9875,8 +10580,11 @@
       <c r="L231" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M231" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" s="7">
         <v>1900</v>
       </c>
@@ -9913,8 +10621,11 @@
       <c r="L232" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M232" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" s="7">
         <v>1900</v>
       </c>
@@ -9951,8 +10662,11 @@
       <c r="L233" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M233" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" s="7">
         <v>1900</v>
       </c>
@@ -9989,8 +10703,11 @@
       <c r="L234" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M234" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" s="7">
         <v>1900</v>
       </c>
@@ -10027,8 +10744,11 @@
       <c r="L235" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M235" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" s="7">
         <v>1900</v>
       </c>
@@ -10065,8 +10785,11 @@
       <c r="L236" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M236" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" s="7">
         <v>1900</v>
       </c>
@@ -10103,8 +10826,11 @@
       <c r="L237" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M237" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="7">
         <v>1900</v>
       </c>
@@ -10141,8 +10867,11 @@
       <c r="L238" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M238" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="7">
         <v>1900</v>
       </c>
@@ -10179,8 +10908,11 @@
       <c r="L239" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M239" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="7">
         <v>1900</v>
       </c>
@@ -10217,8 +10949,11 @@
       <c r="L240" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M240" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="7">
         <v>1900</v>
       </c>
@@ -10255,8 +10990,11 @@
       <c r="L241" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M241" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="7">
         <v>1900</v>
       </c>
@@ -10293,8 +11031,11 @@
       <c r="L242" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M242" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="7">
         <v>1900</v>
       </c>
@@ -10331,8 +11072,11 @@
       <c r="L243" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M243" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="7">
         <v>1900</v>
       </c>
@@ -10369,8 +11113,11 @@
       <c r="L244" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M244" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="7">
         <v>1900</v>
       </c>
@@ -10407,8 +11154,11 @@
       <c r="L245" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M245" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="7">
         <v>1900</v>
       </c>
@@ -10445,8 +11195,11 @@
       <c r="L246" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M246" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="7">
         <v>1900</v>
       </c>
@@ -10483,8 +11236,11 @@
       <c r="L247" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M247" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="7">
         <v>1900</v>
       </c>
@@ -10521,8 +11277,11 @@
       <c r="L248" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M248" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="7">
         <v>1900</v>
       </c>
@@ -10559,8 +11318,11 @@
       <c r="L249" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M249" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="7">
         <v>1900</v>
       </c>
@@ -10597,8 +11359,11 @@
       <c r="L250" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M250" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="7">
         <v>1900</v>
       </c>
@@ -10635,8 +11400,11 @@
       <c r="L251" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M251" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="7">
         <v>1900</v>
       </c>
@@ -10673,8 +11441,11 @@
       <c r="L252" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M252" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="7">
         <v>1900</v>
       </c>
@@ -10711,8 +11482,11 @@
       <c r="L253" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M253" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="7">
         <v>1900</v>
       </c>
@@ -10749,8 +11523,11 @@
       <c r="L254" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M254" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="7">
         <v>1900</v>
       </c>
@@ -10787,8 +11564,11 @@
       <c r="L255" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M255" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="7">
         <v>1900</v>
       </c>
@@ -10825,8 +11605,11 @@
       <c r="L256" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M256" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="7">
         <v>1900</v>
       </c>
@@ -10863,8 +11646,11 @@
       <c r="L257" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M257" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="7">
         <v>1900</v>
       </c>
@@ -10901,8 +11687,11 @@
       <c r="L258" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M258" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="7">
         <v>1900</v>
       </c>
@@ -10939,8 +11728,11 @@
       <c r="L259" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M259" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="7">
         <v>1900</v>
       </c>
@@ -10977,8 +11769,11 @@
       <c r="L260" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M260" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="7">
         <v>1900</v>
       </c>
@@ -11015,8 +11810,11 @@
       <c r="L261" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M261" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" s="7">
         <v>1900</v>
       </c>
@@ -11053,8 +11851,11 @@
       <c r="L262" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M262" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" s="7">
         <v>1900</v>
       </c>
@@ -11091,8 +11892,11 @@
       <c r="L263" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M263" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" s="7">
         <v>1900</v>
       </c>
@@ -11129,8 +11933,11 @@
       <c r="L264" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M264" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="7">
         <v>1900</v>
       </c>
@@ -11167,8 +11974,11 @@
       <c r="L265" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M265" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" s="7">
         <v>1900</v>
       </c>
@@ -11205,8 +12015,11 @@
       <c r="L266" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M266" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" s="7">
         <v>1900</v>
       </c>
@@ -11243,8 +12056,11 @@
       <c r="L267" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M267" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="7">
         <v>1900</v>
       </c>
@@ -11281,8 +12097,11 @@
       <c r="L268" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M268" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" s="7">
         <v>1900</v>
       </c>
@@ -11319,8 +12138,11 @@
       <c r="L269" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M269" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" s="7">
         <v>1900</v>
       </c>
@@ -11357,8 +12179,11 @@
       <c r="L270" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M270" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" s="7">
         <v>1900</v>
       </c>
@@ -11395,8 +12220,11 @@
       <c r="L271" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M271" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" s="7">
         <v>1900</v>
       </c>
@@ -11433,8 +12261,11 @@
       <c r="L272" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M272" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" s="7">
         <v>1900</v>
       </c>
@@ -11471,8 +12302,11 @@
       <c r="L273" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M273" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" s="7">
         <v>1900</v>
       </c>
@@ -11509,8 +12343,11 @@
       <c r="L274" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M274" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" s="7">
         <v>1900</v>
       </c>
@@ -11547,8 +12384,11 @@
       <c r="L275" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M275" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" s="7">
         <v>1900</v>
       </c>
@@ -11585,8 +12425,11 @@
       <c r="L276" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M276" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" s="7">
         <v>1900</v>
       </c>
@@ -11623,8 +12466,11 @@
       <c r="L277" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M277" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" s="7">
         <v>1900</v>
       </c>
@@ -11661,8 +12507,11 @@
       <c r="L278" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M278" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" s="7">
         <v>1900</v>
       </c>
@@ -11699,8 +12548,11 @@
       <c r="L279" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M279" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" s="7">
         <v>1900</v>
       </c>
@@ -11737,8 +12589,11 @@
       <c r="L280" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M280" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="7">
         <v>1900</v>
       </c>
@@ -11775,8 +12630,11 @@
       <c r="L281" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M281" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" s="7">
         <v>1900</v>
       </c>
@@ -11813,8 +12671,11 @@
       <c r="L282" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M282" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" s="7">
         <v>1900</v>
       </c>
@@ -11851,8 +12712,11 @@
       <c r="L283" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M283" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" s="7">
         <v>1900</v>
       </c>
@@ -11889,8 +12753,11 @@
       <c r="L284" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M284" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" s="7">
         <v>1900</v>
       </c>
@@ -11927,8 +12794,11 @@
       <c r="L285" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M285" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" s="7">
         <v>1900</v>
       </c>
@@ -11965,8 +12835,11 @@
       <c r="L286" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M286" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" s="7">
         <v>1900</v>
       </c>
@@ -12003,8 +12876,11 @@
       <c r="L287" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M287" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" s="7">
         <v>1900</v>
       </c>
@@ -12041,8 +12917,11 @@
       <c r="L288" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M288" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" s="7">
         <v>1900</v>
       </c>
@@ -12079,8 +12958,11 @@
       <c r="L289" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M289" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" s="7">
         <v>1900</v>
       </c>
@@ -12117,8 +12999,11 @@
       <c r="L290" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M290" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" s="7">
         <v>1900</v>
       </c>
@@ -12155,8 +13040,11 @@
       <c r="L291" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M291" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" s="7">
         <v>1900</v>
       </c>
@@ -12193,8 +13081,11 @@
       <c r="L292" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M292" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" s="7">
         <v>1900</v>
       </c>
@@ -12231,8 +13122,11 @@
       <c r="L293" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M293" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" s="7">
         <v>1900</v>
       </c>
@@ -12269,8 +13163,11 @@
       <c r="L294" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M294" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" s="7">
         <v>1900</v>
       </c>
@@ -12307,8 +13204,11 @@
       <c r="L295" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M295" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" s="7">
         <v>1900</v>
       </c>
@@ -12345,8 +13245,11 @@
       <c r="L296" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M296" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" s="7">
         <v>1900</v>
       </c>
@@ -12383,8 +13286,11 @@
       <c r="L297" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M297" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" s="7">
         <v>1900</v>
       </c>
@@ -12421,8 +13327,11 @@
       <c r="L298" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M298" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" s="7">
         <v>1900</v>
       </c>
@@ -12459,8 +13368,11 @@
       <c r="L299" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M299" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" s="7">
         <v>1900</v>
       </c>
@@ -12497,8 +13409,11 @@
       <c r="L300" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M300" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" s="7">
         <v>1900</v>
       </c>
@@ -12535,8 +13450,11 @@
       <c r="L301" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M301" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" s="7">
         <v>1900</v>
       </c>
@@ -12573,8 +13491,11 @@
       <c r="L302" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M302" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" s="7">
         <v>1900</v>
       </c>
@@ -12611,8 +13532,11 @@
       <c r="L303" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M303" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" s="7">
         <v>1900</v>
       </c>
@@ -12649,8 +13573,11 @@
       <c r="L304" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M304" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" s="7">
         <v>1900</v>
       </c>
@@ -12687,8 +13614,11 @@
       <c r="L305" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M305" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" s="7">
         <v>1900</v>
       </c>
@@ -12725,8 +13655,11 @@
       <c r="L306" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M306" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" s="7">
         <v>1900</v>
       </c>
@@ -12763,8 +13696,11 @@
       <c r="L307" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M307" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" s="7">
         <v>1900</v>
       </c>
@@ -12801,8 +13737,11 @@
       <c r="L308" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M308" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" s="7">
         <v>1900</v>
       </c>
@@ -12839,8 +13778,11 @@
       <c r="L309" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M309" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" s="7">
         <v>1900</v>
       </c>
@@ -12877,8 +13819,11 @@
       <c r="L310" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M310" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" s="7">
         <v>1900</v>
       </c>
@@ -12915,8 +13860,11 @@
       <c r="L311" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M311" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" s="7">
         <v>1900</v>
       </c>
@@ -12953,8 +13901,11 @@
       <c r="L312" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M312" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" s="7">
         <v>1900</v>
       </c>
@@ -12991,8 +13942,11 @@
       <c r="L313" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M313" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" s="7">
         <v>1900</v>
       </c>
@@ -13029,8 +13983,11 @@
       <c r="L314" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M314" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" s="7">
         <v>1900</v>
       </c>
@@ -13067,8 +14024,11 @@
       <c r="L315" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M315" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" s="7">
         <v>1900</v>
       </c>
@@ -13105,8 +14065,11 @@
       <c r="L316" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M316" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" s="7">
         <v>1900</v>
       </c>
@@ -13143,8 +14106,11 @@
       <c r="L317" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M317" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" s="7">
         <v>1900</v>
       </c>
@@ -13181,8 +14147,11 @@
       <c r="L318" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M318" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" s="7">
         <v>1900</v>
       </c>
@@ -13219,8 +14188,11 @@
       <c r="L319" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M319" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" s="7">
         <v>1900</v>
       </c>
@@ -13257,8 +14229,11 @@
       <c r="L320" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M320" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="7">
         <v>1900</v>
       </c>
@@ -13295,8 +14270,11 @@
       <c r="L321" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M321" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" s="7">
         <v>1900</v>
       </c>
@@ -13333,8 +14311,11 @@
       <c r="L322" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M322" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="7">
         <v>1900</v>
       </c>
@@ -13371,8 +14352,11 @@
       <c r="L323" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M323" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" s="7">
         <v>1900</v>
       </c>
@@ -13409,8 +14393,11 @@
       <c r="L324" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M324" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" s="7">
         <v>1900</v>
       </c>
@@ -13447,8 +14434,11 @@
       <c r="L325" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M325" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="7">
         <v>1900</v>
       </c>
@@ -13485,8 +14475,11 @@
       <c r="L326" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M326" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="7">
         <v>1900</v>
       </c>
@@ -13523,8 +14516,11 @@
       <c r="L327" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M327" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="7">
         <v>1900</v>
       </c>
@@ -13561,8 +14557,11 @@
       <c r="L328" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M328" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" s="7">
         <v>1900</v>
       </c>
@@ -13599,8 +14598,11 @@
       <c r="L329" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M329" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" s="7">
         <v>1900</v>
       </c>
@@ -13637,8 +14639,11 @@
       <c r="L330" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M330" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" s="7">
         <v>1900</v>
       </c>
@@ -13675,8 +14680,11 @@
       <c r="L331" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M331" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="7">
         <v>1900</v>
       </c>
@@ -13713,8 +14721,11 @@
       <c r="L332" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M332" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" s="7">
         <v>1900</v>
       </c>
@@ -13751,8 +14762,11 @@
       <c r="L333" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M333" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="7">
         <v>1900</v>
       </c>
@@ -13789,8 +14803,11 @@
       <c r="L334" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M334" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" s="7">
         <v>1900</v>
       </c>
@@ -13827,8 +14844,11 @@
       <c r="L335" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M335" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" s="7">
         <v>1900</v>
       </c>
@@ -13865,8 +14885,11 @@
       <c r="L336" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M336" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" s="7">
         <v>1900</v>
       </c>
@@ -13903,8 +14926,11 @@
       <c r="L337" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M337" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" s="7">
         <v>1900</v>
       </c>
@@ -13941,8 +14967,11 @@
       <c r="L338" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M338" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="7">
         <v>1900</v>
       </c>
@@ -13979,8 +15008,11 @@
       <c r="L339" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M339" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="7">
         <v>1900</v>
       </c>
@@ -14017,8 +15049,11 @@
       <c r="L340" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M340" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" s="7">
         <v>1900</v>
       </c>
@@ -14055,8 +15090,11 @@
       <c r="L341" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M341" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" s="7">
         <v>1900</v>
       </c>
@@ -14093,8 +15131,11 @@
       <c r="L342" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M342" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="7">
         <v>1900</v>
       </c>
@@ -14131,8 +15172,11 @@
       <c r="L343" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M343" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="7">
         <v>1900</v>
       </c>
@@ -14169,8 +15213,11 @@
       <c r="L344" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M344" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" s="7">
         <v>1900</v>
       </c>
@@ -14207,8 +15254,11 @@
       <c r="L345" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M345" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" s="7">
         <v>1900</v>
       </c>
@@ -14245,8 +15295,11 @@
       <c r="L346" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M346" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" s="7">
         <v>1900</v>
       </c>
@@ -14283,8 +15336,11 @@
       <c r="L347" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M347" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" s="7">
         <v>1900</v>
       </c>
@@ -14321,8 +15377,11 @@
       <c r="L348" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M348" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" s="7">
         <v>1900</v>
       </c>
@@ -14359,8 +15418,11 @@
       <c r="L349" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M349" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" s="7">
         <v>1900</v>
       </c>
@@ -14397,8 +15459,11 @@
       <c r="L350" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M350" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" s="7">
         <v>1900</v>
       </c>
@@ -14435,8 +15500,11 @@
       <c r="L351" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M351" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" s="7">
         <v>1900</v>
       </c>
@@ -14473,8 +15541,11 @@
       <c r="L352" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M352" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" s="7">
         <v>1900</v>
       </c>
@@ -14511,8 +15582,11 @@
       <c r="L353" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M353" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" s="7">
         <v>1900</v>
       </c>
@@ -14549,8 +15623,11 @@
       <c r="L354" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M354" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" s="7">
         <v>1900</v>
       </c>
@@ -14587,8 +15664,11 @@
       <c r="L355" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M355" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" s="7">
         <v>1900</v>
       </c>
@@ -14625,8 +15705,11 @@
       <c r="L356" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M356" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="7">
         <v>1900</v>
       </c>
@@ -14662,6 +15745,9 @@
       </c>
       <c r="L357" s="7" t="s">
         <v>13</v>
+      </c>
+      <c r="M357" s="19" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
